--- a/data/test_resumes/job_class.xlsx
+++ b/data/test_resumes/job_class.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="57">
   <si>
     <t>JOB_ID</t>
   </si>
@@ -128,6 +128,63 @@
   </si>
   <si>
     <t>b748538f72f1e32d</t>
+  </si>
+  <si>
+    <t>7edb4799e325c0ff</t>
+  </si>
+  <si>
+    <t>24baa477f43eaed9</t>
+  </si>
+  <si>
+    <t>f6d04b97e1254f59</t>
+  </si>
+  <si>
+    <t>c88094907fd1f5d1</t>
+  </si>
+  <si>
+    <t>36809b1cc95ec946</t>
+  </si>
+  <si>
+    <t>d5deecce494aeef1</t>
+  </si>
+  <si>
+    <t>f7ec2e62ee7c4be8</t>
+  </si>
+  <si>
+    <t>df96d86bda875fd2</t>
+  </si>
+  <si>
+    <t>edb79a2383f0f872</t>
+  </si>
+  <si>
+    <t>9131420f46da411f</t>
+  </si>
+  <si>
+    <t>02df50032bf9cc77</t>
+  </si>
+  <si>
+    <t>ef3f457d60319892</t>
+  </si>
+  <si>
+    <t>481c12ec90b39dd0</t>
+  </si>
+  <si>
+    <t>f05fbd6ebc368469</t>
+  </si>
+  <si>
+    <t>3d1831e257f7f0d3</t>
+  </si>
+  <si>
+    <t>465518654d70ac50</t>
+  </si>
+  <si>
+    <t>d858e3bf3f862dd8</t>
+  </si>
+  <si>
+    <t>31b31bb4403a7f6b</t>
+  </si>
+  <si>
+    <t>872943044a688fae</t>
   </si>
 </sst>
 </file>
@@ -477,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,6 +649,9 @@
       <c r="D6" t="s">
         <v>25</v>
       </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
       <c r="F6" t="s">
         <v>32</v>
       </c>
@@ -603,8 +663,14 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
       <c r="D7" t="s">
         <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
       </c>
       <c r="F7" t="s">
         <v>32</v>
@@ -617,8 +683,14 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
       <c r="D8" t="s">
         <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
       </c>
       <c r="F8" t="s">
         <v>32</v>
@@ -631,8 +703,14 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
       <c r="D9" t="s">
         <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
       </c>
       <c r="F9" t="s">
         <v>32</v>
@@ -645,8 +723,14 @@
       <c r="B10" t="s">
         <v>8</v>
       </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
       <c r="D10" t="s">
         <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
       </c>
       <c r="F10" t="s">
         <v>32</v>
@@ -659,6 +743,9 @@
       <c r="B11" t="s">
         <v>8</v>
       </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
       <c r="D11" t="s">
         <v>25</v>
       </c>
@@ -701,6 +788,9 @@
       <c r="B16" t="s">
         <v>3</v>
       </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
@@ -712,6 +802,9 @@
       <c r="B17" t="s">
         <v>3</v>
       </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
       <c r="D17" t="s">
         <v>26</v>
       </c>
@@ -723,6 +816,9 @@
       <c r="B18" t="s">
         <v>3</v>
       </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
       <c r="D18" t="s">
         <v>26</v>
       </c>
@@ -734,6 +830,9 @@
       <c r="B19" t="s">
         <v>3</v>
       </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
       <c r="D19" t="s">
         <v>26</v>
       </c>
@@ -745,6 +844,9 @@
       <c r="B20" t="s">
         <v>3</v>
       </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
       <c r="D20" t="s">
         <v>26</v>
       </c>
@@ -756,6 +858,9 @@
       <c r="B21" t="s">
         <v>3</v>
       </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
       <c r="D21" t="s">
         <v>26</v>
       </c>
@@ -767,6 +872,9 @@
       <c r="B22" t="s">
         <v>3</v>
       </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
       <c r="D22" t="s">
         <v>26</v>
       </c>
@@ -778,7 +886,18 @@
       <c r="B23" t="s">
         <v>3</v>
       </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
       <c r="D23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
         <v>26</v>
       </c>
     </row>
